--- a/Documents/Test Protocol.xlsx
+++ b/Documents/Test Protocol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharb\OneDrive\Documents\GitHub\MovingCarProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\Embedded System Diploma\Sprints\task\Sprint Three\MovingCarProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD95F5B-87A7-4ECD-8C6D-64F8FDD01AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDECA34-4FDA-4E9E-9B84-970668B9A9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{875C6DCD-AFAF-4A5F-9F21-083CA0FCED6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875C6DCD-AFAF-4A5F-9F21-083CA0FCED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -43,6 +43,105 @@
   </si>
   <si>
     <t>Pass / Fail</t>
+  </si>
+  <si>
+    <t>Double Press On Start Button</t>
+  </si>
+  <si>
+    <t>Press Start Button Two Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore Second Press </t>
+  </si>
+  <si>
+    <t>Ignore Seconed Press</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Car Stop After Press Stop Button</t>
+  </si>
+  <si>
+    <t>Press Stop Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Stop </t>
+  </si>
+  <si>
+    <t>Car Stop</t>
+  </si>
+  <si>
+    <t>Forward Led Turn On In Forward State</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Rotate Led Turn On In Rotate State</t>
+  </si>
+  <si>
+    <t>Forward Led Turn On</t>
+  </si>
+  <si>
+    <t>Rotate Led Turn On</t>
+  </si>
+  <si>
+    <t>Stop Led Turn On In Rotate State</t>
+  </si>
+  <si>
+    <t>Stop Led Turn On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Side Led Turn On In Short Side State </t>
+  </si>
+  <si>
+    <t>Short Side Led Turn On</t>
+  </si>
+  <si>
+    <t>4 Motors On In Forward State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Motors On </t>
+  </si>
+  <si>
+    <t>4 Motor Speed Is 50% In Forward State</t>
+  </si>
+  <si>
+    <t>4 motors speed is 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Motors In Left Side On </t>
+  </si>
+  <si>
+    <t>2 Motors In Right Side Off In Rotate State</t>
+  </si>
+  <si>
+    <t>2 Motors In Left Side On In Rotate State</t>
+  </si>
+  <si>
+    <t>2 Motors In Right Side Off</t>
+  </si>
+  <si>
+    <t>2 Motor Speed In Left Side Is 30% In Rotate State</t>
+  </si>
+  <si>
+    <t>2 motors In Left Side speed is 30%</t>
+  </si>
+  <si>
+    <t>4 Motors Off In Stop State</t>
+  </si>
+  <si>
+    <t>4 Motors Off</t>
+  </si>
+  <si>
+    <t>Idle State</t>
+  </si>
+  <si>
+    <t>All Component Is Off Except Stop Led</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop Led Turn On </t>
   </si>
 </sst>
 </file>
@@ -99,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,7 +213,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,21 +532,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123E326-AE56-4BD1-BFE1-3D77BAFFAE7E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,17 +568,265 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D51">
